--- a/results/mod1.income.fr.eff.COMB.xlsx
+++ b/results/mod1.income.fr.eff.COMB.xlsx
@@ -431,22 +431,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.87963455544514</v>
+        <v>0.879633867496449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0150574760083077</v>
+        <v>0.0150457851751901</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>0.850122444770781</v>
+        <v>0.85014467043395</v>
       </c>
       <c r="G2" t="n">
-        <v>0.909146666119499</v>
+        <v>0.909123064558948</v>
       </c>
       <c r="H2" t="n">
-        <v>58.4184597046553</v>
+        <v>58.463806126046</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -460,22 +460,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.869348116475428</v>
+        <v>0.869347577778348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0164289389940183</v>
+        <v>0.0164174405034254</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.837147987742947</v>
+        <v>0.837169985673305</v>
       </c>
       <c r="G3" t="n">
-        <v>0.90154824520791</v>
+        <v>0.901525169883391</v>
       </c>
       <c r="H3" t="n">
-        <v>52.9156579613543</v>
+        <v>52.9526863579595</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.887447598764241</v>
+        <v>0.887447343977702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0149173610640668</v>
+        <v>0.0149072869604234</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>0.858210108334289</v>
+        <v>0.858229598428068</v>
       </c>
       <c r="G4" t="n">
-        <v>0.916685089194192</v>
+        <v>0.916665089527335</v>
       </c>
       <c r="H4" t="n">
-        <v>59.490924363421</v>
+        <v>59.5311102773925</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.878501298290826</v>
+        <v>0.878501059719152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0153562204381142</v>
+        <v>0.0153446392184606</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>0.848403659293465</v>
+        <v>0.848426119495208</v>
       </c>
       <c r="G5" t="n">
-        <v>0.908598937288188</v>
+        <v>0.908575999943096</v>
       </c>
       <c r="H5" t="n">
-        <v>57.2081718826062</v>
+        <v>57.2513336554865</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -547,22 +547,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.878333910334898</v>
+        <v>0.878333548833135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0151780439190728</v>
+        <v>0.0151663047222997</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>0.848585490897748</v>
+        <v>0.848608137798868</v>
       </c>
       <c r="G6" t="n">
-        <v>0.908082329772048</v>
+        <v>0.908058959867403</v>
       </c>
       <c r="H6" t="n">
-        <v>57.8687158251783</v>
+        <v>57.9134841951107</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -576,22 +576,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.880467776506356</v>
+        <v>0.880467540485532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0148212634300192</v>
+        <v>0.0148097687414116</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>0.851418633978138</v>
+        <v>0.851440927132998</v>
       </c>
       <c r="G7" t="n">
-        <v>0.909516919034574</v>
+        <v>0.909494153838066</v>
       </c>
       <c r="H7" t="n">
-        <v>59.4057167031416</v>
+        <v>59.4518088606973</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133133096639431</v>
+        <v>0.133132119245475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0152221382558842</v>
+        <v>0.0152106029552454</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>0.103298253890209</v>
+        <v>0.103319885270056</v>
       </c>
       <c r="G8" t="n">
-        <v>0.162967939388654</v>
+        <v>0.162944353220895</v>
       </c>
       <c r="H8" t="n">
-        <v>8.74601809558312</v>
+        <v>8.75258657642922</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00000000000000000221013683562238</v>
+        <v>0.00000000000000000208517441826633</v>
       </c>
     </row>
     <row r="9">
@@ -634,25 +634,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116071380804488</v>
+        <v>0.116070411444413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0149021164112031</v>
+        <v>0.0148926885364228</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0868637693451065</v>
+        <v>0.0868812782800517</v>
       </c>
       <c r="G9" t="n">
-        <v>0.145278992263869</v>
+        <v>0.145259544608774</v>
       </c>
       <c r="H9" t="n">
-        <v>7.78891921131606</v>
+        <v>7.79378492745224</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000000000000675848010685693</v>
+        <v>0.00000000000000650312010779698</v>
       </c>
     </row>
     <row r="10">
@@ -663,25 +663,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.114647498549436</v>
+        <v>0.114647136978789</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0143022738948487</v>
+        <v>0.0142927585266908</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0866155568185056</v>
+        <v>0.0866338450267473</v>
       </c>
       <c r="G10" t="n">
-        <v>0.142679440280367</v>
+        <v>0.142660428930831</v>
       </c>
       <c r="H10" t="n">
-        <v>8.01603293240871</v>
+        <v>8.02134428876641</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00000000000000109215234860733</v>
+        <v>0.000000000000001045941103643</v>
       </c>
     </row>
     <row r="11">
@@ -692,25 +692,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.124633715107366</v>
+        <v>0.124633435144203</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0146142579843511</v>
+        <v>0.0146035664946567</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0959902957972613</v>
+        <v>0.0960109707688403</v>
       </c>
       <c r="G11" t="n">
-        <v>0.153277134417471</v>
+        <v>0.153255899519566</v>
       </c>
       <c r="H11" t="n">
-        <v>8.52822738183655</v>
+        <v>8.53445185392247</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0000000000000000148607224360148</v>
+        <v>0.0000000000000000140821461349083</v>
       </c>
     </row>
     <row r="12">
@@ -721,25 +721,25 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.126860806743561</v>
+        <v>0.126860356250683</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0147035261508239</v>
+        <v>0.0146925609926584</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0980424250422038</v>
+        <v>0.0980634658644146</v>
       </c>
       <c r="G12" t="n">
-        <v>0.155679188444919</v>
+        <v>0.155657246636952</v>
       </c>
       <c r="H12" t="n">
-        <v>8.62791723850903</v>
+        <v>8.63432565051611</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000000000000000062479261458124</v>
+        <v>0.00000000000000000590744869833054</v>
       </c>
     </row>
     <row r="13">
@@ -750,25 +750,25 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.135491824202978</v>
+        <v>0.135490907003397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0154660200508548</v>
+        <v>0.0154543282029887</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>0.105178981919129</v>
+        <v>0.105200980320278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.165804666486828</v>
+        <v>0.165780833686517</v>
       </c>
       <c r="H13" t="n">
-        <v>8.76061350996956</v>
+        <v>8.76718193270901</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00000000000000000194190542960463</v>
+        <v>0.00000000000000000183193640957055</v>
       </c>
     </row>
   </sheetData>
